--- a/测试单-电子书_txt-word_170207.xlsx
+++ b/测试单-电子书_txt-word_170207.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="898">
   <si>
     <t>编号</t>
   </si>
@@ -5708,23 +5708,6 @@
   </si>
   <si>
     <r>
-      <t>出现乱序？？【样例】预装数据--方剂学名著集成01~12.txt和儿女英雄转01~08.txt排序是乱序的。而荡寇志01~07.txt则是正常的。=》回溯1月9日版本测试，也存在。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【2月7日版】存在。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>前提：列表中都是一些空文件。进入一个空文件后，依次自动退出打开下一本的过程中，按返回键不能停在文件列表，仍会不断地自动打开下一本书。【样例】列表排序测试文件夹。=》这种情况下，按返回键应该停在文件列表，不自动打开下一本。</t>
     </r>
     <r>
@@ -5884,6 +5867,27 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出现乱序？？【样例】预装数据--方剂学名著集成01~12.txt和儿女英雄转01~08.txt排序是乱序的。而荡寇志01~07.txt则是正常的。=》回溯1月9日版本测试，也存在。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【2月7日版】存在。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9426,10 +9430,10 @@
   <dimension ref="A1:P311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N303" sqref="N303"/>
+      <selection pane="bottomRight" activeCell="N302" sqref="N302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21422,10 +21426,10 @@
         <v>37</v>
       </c>
       <c r="O299" s="301">
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="P299" s="307" t="s">
-        <v>187</v>
+        <v>897</v>
       </c>
     </row>
     <row r="300" spans="1:16" ht="54">
@@ -21448,7 +21452,7 @@
         <v>620</v>
       </c>
       <c r="G300" s="306" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I300" s="307" t="s">
         <v>883</v>
@@ -21507,7 +21511,7 @@
         <v>635</v>
       </c>
       <c r="G302" s="306" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H302" s="307" t="s">
         <v>886</v>
@@ -21519,13 +21523,13 @@
         <v>42754</v>
       </c>
       <c r="L302" s="307" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="O302" s="301">
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="P302" s="307" t="s">
-        <v>187</v>
+        <v>897</v>
       </c>
     </row>
     <row r="303" spans="1:16" ht="81">
@@ -21548,7 +21552,7 @@
         <v>503</v>
       </c>
       <c r="G303" s="291" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H303" s="307" t="s">
         <v>87</v>
@@ -21580,7 +21584,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="54">
+    <row r="305" spans="1:16" ht="54">
       <c r="A305" s="277">
         <v>303</v>
       </c>
@@ -21603,7 +21607,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="40.5">
+    <row r="306" spans="1:16" ht="40.5">
       <c r="A306" s="277">
         <v>304</v>
       </c>
@@ -21623,7 +21627,7 @@
         <v>634</v>
       </c>
       <c r="G306" s="317" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H306" s="316" t="s">
         <v>446</v>
@@ -21633,7 +21637,7 @@
       </c>
       <c r="K306" s="301"/>
     </row>
-    <row r="307" spans="1:11" ht="27" hidden="1" customHeight="1">
+    <row r="307" spans="1:16" ht="27" hidden="1" customHeight="1">
       <c r="A307" s="277">
         <v>305</v>
       </c>
@@ -21662,7 +21666,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="27" hidden="1" customHeight="1">
+    <row r="308" spans="1:16" ht="27" hidden="1" customHeight="1">
       <c r="A308" s="277">
         <v>306</v>
       </c>
@@ -21691,7 +21695,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="40.5">
+    <row r="309" spans="1:16" ht="40.5">
       <c r="A309" s="277">
         <v>307</v>
       </c>
@@ -21717,10 +21721,10 @@
         <v>655</v>
       </c>
       <c r="I309" s="307" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" ht="54">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" ht="54">
       <c r="A310" s="277">
         <v>308</v>
       </c>
@@ -21740,13 +21744,13 @@
         <v>659</v>
       </c>
       <c r="G310" s="302" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H310" s="316" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="40.5">
+    <row r="311" spans="1:16" ht="40.5">
       <c r="A311" s="277">
         <v>309</v>
       </c>
@@ -21766,10 +21770,19 @@
         <v>657</v>
       </c>
       <c r="G311" s="334" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="H311" s="307" t="s">
         <v>87</v>
+      </c>
+      <c r="L311" s="292" t="s">
+        <v>37</v>
+      </c>
+      <c r="O311" s="301">
+        <v>42774</v>
+      </c>
+      <c r="P311" s="307" t="s">
+        <v>897</v>
       </c>
     </row>
   </sheetData>

--- a/测试单-电子书_txt-word_170207.xlsx
+++ b/测试单-电子书_txt-word_170207.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="901">
   <si>
     <t>编号</t>
   </si>
@@ -5888,6 +5888,18 @@
   </si>
   <si>
     <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这边不能复现，怀疑跟上个版本用的是TTS Service有关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先这样吧，不出问题即可。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9430,10 +9442,10 @@
   <dimension ref="A1:P311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="J177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N302" sqref="N302"/>
+      <selection pane="bottomRight" activeCell="L303" sqref="L303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21458,6 +21470,18 @@
         <v>883</v>
       </c>
       <c r="K300" s="301"/>
+      <c r="L300" s="307" t="s">
+        <v>899</v>
+      </c>
+      <c r="N300" s="307" t="s">
+        <v>898</v>
+      </c>
+      <c r="O300" s="301">
+        <v>42774</v>
+      </c>
+      <c r="P300" s="307" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="301" spans="1:16" ht="54" hidden="1" customHeight="1">
       <c r="A301" s="277">
@@ -21583,6 +21607,18 @@
       <c r="I304" s="307" t="s">
         <v>883</v>
       </c>
+      <c r="L304" s="307" t="s">
+        <v>899</v>
+      </c>
+      <c r="N304" s="307" t="s">
+        <v>898</v>
+      </c>
+      <c r="O304" s="301">
+        <v>42774</v>
+      </c>
+      <c r="P304" s="307" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="305" spans="1:16" ht="54">
       <c r="A305" s="277">
@@ -21606,6 +21642,15 @@
       <c r="G305" s="315" t="s">
         <v>887</v>
       </c>
+      <c r="L305" s="292" t="s">
+        <v>37</v>
+      </c>
+      <c r="O305" s="301">
+        <v>42774</v>
+      </c>
+      <c r="P305" s="307" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="306" spans="1:16" ht="40.5">
       <c r="A306" s="277">
@@ -21636,6 +21681,18 @@
         <v>884</v>
       </c>
       <c r="K306" s="301"/>
+      <c r="L306" s="307" t="s">
+        <v>899</v>
+      </c>
+      <c r="N306" s="307" t="s">
+        <v>898</v>
+      </c>
+      <c r="O306" s="301">
+        <v>42774</v>
+      </c>
+      <c r="P306" s="307" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="307" spans="1:16" ht="27" hidden="1" customHeight="1">
       <c r="A307" s="277">
@@ -21722,6 +21779,18 @@
       </c>
       <c r="I309" s="307" t="s">
         <v>893</v>
+      </c>
+      <c r="L309" s="307" t="s">
+        <v>899</v>
+      </c>
+      <c r="N309" s="307" t="s">
+        <v>900</v>
+      </c>
+      <c r="O309" s="301">
+        <v>42774</v>
+      </c>
+      <c r="P309" s="307" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="310" spans="1:16" ht="54">

--- a/测试单-电子书_txt-word_170207.xlsx
+++ b/测试单-电子书_txt-word_170207.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="902">
   <si>
     <t>编号</t>
   </si>
@@ -5900,6 +5900,10 @@
   </si>
   <si>
     <t>先这样吧，不出问题即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改也无需修改。无法修改是因为进入朗读界面会先判断当前文件是否为空，如果为空，这弹出后鼎提供的提示框，这个时候按【返回键】都是被这个提示框给捕获了，我这边无法收到返回键，自然也无法中断。无需修改是因为正常的用户谁会干这样的事情了，在实际使用中不会出现这样的情况。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9445,7 +9449,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L303" sqref="L303"/>
+      <selection pane="bottomRight" activeCell="N310" sqref="N310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21793,7 +21797,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="54">
+    <row r="310" spans="1:16" ht="108">
       <c r="A310" s="277">
         <v>308</v>
       </c>
@@ -21817,6 +21821,15 @@
       </c>
       <c r="H310" s="316" t="s">
         <v>653</v>
+      </c>
+      <c r="L310" s="307" t="s">
+        <v>899</v>
+      </c>
+      <c r="N310" s="307" t="s">
+        <v>901</v>
+      </c>
+      <c r="O310" s="301">
+        <v>42774</v>
       </c>
     </row>
     <row r="311" spans="1:16" ht="40.5">

--- a/测试单-电子书_txt-word_170207.xlsx
+++ b/测试单-电子书_txt-word_170207.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="904">
   <si>
     <t>编号</t>
   </si>
@@ -5904,6 +5904,14 @@
   </si>
   <si>
     <t>无法修改也无需修改。无法修改是因为进入朗读界面会先判断当前文件是否为空，如果为空，这弹出后鼎提供的提示框，这个时候按【返回键】都是被这个提示框给捕获了，我这边无法收到返回键，自然也无法中断。无需修改是因为正常的用户谁会干这样的事情了，在实际使用中不会出现这样的情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这边还是不能复现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐句模式加上了空格朗读。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9446,10 +9454,10 @@
   <dimension ref="A1:P311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N310" sqref="N310"/>
+      <selection pane="bottomRight" activeCell="N177" sqref="N177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16488,11 +16496,14 @@
       <c r="L177" s="292" t="s">
         <v>37</v>
       </c>
+      <c r="N177" s="307" t="s">
+        <v>903</v>
+      </c>
       <c r="O177" s="301">
-        <v>42655</v>
+        <v>42774</v>
       </c>
       <c r="P177" s="307" t="s">
-        <v>187</v>
+        <v>897</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="108" hidden="1" customHeight="1">
@@ -21584,6 +21595,18 @@
       </c>
       <c r="H303" s="307" t="s">
         <v>87</v>
+      </c>
+      <c r="L303" s="307" t="s">
+        <v>899</v>
+      </c>
+      <c r="N303" s="307" t="s">
+        <v>902</v>
+      </c>
+      <c r="O303" s="301">
+        <v>42774</v>
+      </c>
+      <c r="P303" s="307" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="304" spans="1:16" ht="54">

--- a/测试单-电子书_txt-word_170207.xlsx
+++ b/测试单-电子书_txt-word_170207.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="905">
   <si>
     <t>编号</t>
   </si>
@@ -5911,7 +5911,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逐句模式加上了空格朗读。</t>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全角空格可以读，半角空格过滤了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16494,10 +16498,10 @@
         <v>42656</v>
       </c>
       <c r="L177" s="292" t="s">
-        <v>37</v>
+        <v>903</v>
       </c>
       <c r="N177" s="307" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O177" s="301">
         <v>42774</v>
